--- a/VALOR/Importaciones por Lugar de Salida 2015 - Mensual - Editado.xlsx
+++ b/VALOR/Importaciones por Lugar de Salida 2015 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\CIF\2015\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77BDB293-F853-4329-B2DC-CF9861DA5CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125BE523-2149-4EDE-BF04-7163A81D866B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Impo Puerto Monto CIF 2015" sheetId="2" r:id="rId1"/>
@@ -358,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -417,11 +417,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -453,6 +549,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,27 +559,430 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,6 +993,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEB98102-69B5-4BF8-BAFF-FA5CECD2B9D6}" name="imp_salida_valor_2015" displayName="imp_salida_valor_2015" ref="A1:M56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M56" xr:uid="{A8DCE901-1B9C-4660-ACD9-DD9B21A6EB83}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{5FF1756F-86B0-4656-B55B-D8E45D47C5F6}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{860B294E-E524-482B-AA9A-0349C7B8EBDE}" name="Enero - 2015" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{8529F802-08E8-4B0E-AC30-1F807E708712}" name="Febrero - 2015" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{76BB05E3-98C0-45ED-8D1D-5A0DA2CD6BF0}" name="Marzo - 2015" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{EA1549AE-2A3B-48D9-B1DB-389E0E87800E}" name="Abril - 2015" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{82072A3A-CF61-4C19-B45B-8E9B3125E411}" name="Mayo - 2015" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D4540811-4AC4-4E6F-8E2C-48DCE4B54272}" name="Junio - 2015" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{23D5C1D8-422F-45D8-8658-A43664BB0548}" name="Julio - 2015" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8E309221-BA77-4141-964C-95ACC4F72E99}" name="Agosto - 2015" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{A7AAA882-3DB5-4A42-AAEB-BFF883A083BF}" name="Septiembre - 2015" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{AD3C5E81-1EB5-4FB9-B054-2EEE41F367C2}" name="Octubre - 2015" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{CA4C1967-2A89-4EAD-AEEB-72B558968803}" name="Noviembre - 2015" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{D0F400C6-B155-4CCA-99FC-DD673D4D4EC5}" name="Diciembre - 2015" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,41 +1311,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -867,7 +1389,7 @@
       <c r="N4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="17"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -3631,7 +4153,7 @@
   <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3648,2303 +4170,2303 @@
     <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15">
         <v>607339960.58000171</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="15">
         <v>653938991.08999634</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="15">
         <v>729027609.78000367</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="15">
         <v>712727252.44000435</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="15">
         <v>553157884.45999753</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="15">
         <v>717845325.15000629</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="15">
         <v>694582457.10999823</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="15">
         <v>613003699.14000154</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="15">
         <v>643932986.92999899</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="15">
         <v>767943054.95000112</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="15">
         <v>728891220.39000523</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="20">
         <v>698174643.86999559</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
         <v>268.54000000000002</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="15">
         <v>12039.93</v>
       </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0</v>
-      </c>
-      <c r="J3" s="23">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23">
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
         <v>9633.7000000000007</v>
       </c>
-      <c r="L3" s="23">
-        <v>0</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="15">
         <v>2433454.5800000005</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="15">
         <v>2179389.8899999997</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="15">
         <v>3362822.9599999995</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="15">
         <v>555631.78999999969</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="15">
         <v>40705.410000000011</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="15">
         <v>576634.16</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="15">
         <v>4019078.1900000009</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="15">
         <v>1700153.2999999996</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="15">
         <v>200246.67</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="15">
         <v>416376.50999999995</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="15">
         <v>343256.73999999987</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <v>229334.95</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
         <v>465647.32</v>
       </c>
-      <c r="D5" s="23">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
         <v>434429.8</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
         <v>4211.8100000000004</v>
       </c>
-      <c r="L5" s="23">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23">
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
         <v>8353.41</v>
       </c>
-      <c r="E6" s="23">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
         <v>1280.31</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="15">
         <v>3746.71</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="15">
         <v>7405.28</v>
       </c>
-      <c r="I6" s="23">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
         <v>6720</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="15">
         <v>14588.17</v>
       </c>
-      <c r="L6" s="23">
-        <v>0</v>
-      </c>
-      <c r="M6" s="23">
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
         <v>21453.279999999999</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="15">
         <v>33856.310000000005</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
         <v>31607.93</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="15">
         <v>6154.18</v>
       </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
         <v>21591.26</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="20">
         <v>14392.609999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="15">
         <v>115218969.29000001</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="15">
         <v>66565070.130000025</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="15">
         <v>66840458.999999955</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="15">
         <v>87198926.390000015</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="15">
         <v>63341360.639999986</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="15">
         <v>84436439.079999924</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="15">
         <v>106576072.27</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="15">
         <v>82152865.470000044</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="15">
         <v>16763274.729999997</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="15">
         <v>98247555.129999906</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="15">
         <v>96720992.480000034</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <v>99926157.62000002</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="15">
         <v>16943500.49000001</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="15">
         <v>14902024.739999995</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="15">
         <v>12988279.580000008</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="15">
         <v>17637397.97000001</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>15060025.67999999</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="15">
         <v>17601879.939999998</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="15">
         <v>14464120.85</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="15">
         <v>11898151.809999997</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="15">
         <v>15323541.359999994</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="15">
         <v>15494405.960000001</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="15">
         <v>16303319.009999996</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <v>20492841.480000012</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="15">
         <v>263051.84000000003</v>
       </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23">
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
         <v>1752.4</v>
       </c>
-      <c r="I10" s="23">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
-        <v>0</v>
-      </c>
-      <c r="M10" s="23">
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="15">
         <v>2489161.64</v>
       </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
         <v>2485462.35</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="15">
         <v>5335772.78</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="15">
         <v>16186564.210000001</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="15">
         <v>13251321.529999999</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="15">
         <v>7875816.1500000004</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="15">
         <v>13149776.25</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="15">
         <v>12454791.810000001</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <v>1042290.03</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <v>3604921.45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="15">
         <v>10682467.539999999</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <v>12574576.32</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="15">
         <v>12434479.210000001</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="15">
         <v>11195126.609999999</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="15">
         <v>11817406.690000001</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="15">
         <v>15808777.77</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="15">
         <v>12203092.220000001</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="15">
         <v>12346160.01</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="15">
         <v>11288861.82</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="15">
         <v>9657630.1799999997</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <v>5818317.3499999996</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <v>11273234.68</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23">
-        <v>0</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-      <c r="M13" s="23">
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
         <v>11500</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="15">
         <v>2451736.9</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="15">
         <v>2326075.62</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="15">
         <v>1847667.1500000001</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="15">
         <v>1398803.1899999997</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>2004148.41</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="15">
         <v>2391831.7800000003</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="15">
         <v>3936276.21</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="15">
         <v>3445757.8699999996</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <v>2117954.4999999995</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="15">
         <v>1644396.9000000004</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="15">
         <v>1613677.76</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <v>1633527.8899999994</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="23">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
         <v>399052.64</v>
       </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
         <v>25304.93</v>
       </c>
-      <c r="H15" s="23">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23">
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
         <v>55862.960000000006</v>
       </c>
-      <c r="J15" s="23">
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
         <v>438826.13</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="15">
         <v>2018061.9900000002</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <v>349790</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="15">
         <v>66542.02</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="15">
         <v>1043326.4299999999</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="15">
         <v>255363.67</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="15">
         <v>814049.4</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="15">
         <v>175895.24</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="15">
         <v>2468538.9299999997</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="15">
         <v>343988.99</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="15">
         <v>1153319.94</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="15">
         <v>144384.27000000002</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="15">
         <v>852893.16999999993</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="15">
         <v>361607.42</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <v>1281812.3799999999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="15">
         <v>788797.72</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="15">
         <v>3231207.7800000003</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="15">
         <v>1334140.18</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="15">
         <v>4248106.49</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="15">
         <v>4794395.91</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="15">
         <v>1445757.3</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="15">
         <v>2351327.75</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="15">
         <v>1205400</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="15">
         <v>3349990.56</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="15">
         <v>2496641.61</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="15">
         <v>768739.74</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <v>1365901.43</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="23">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
-        <v>0</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="B18" s="15">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
         <v>3314.4</v>
       </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
-        <v>0</v>
-      </c>
-      <c r="J18" s="23">
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
         <v>10035</v>
       </c>
-      <c r="K18" s="23">
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="15">
         <v>556402.78</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="15">
         <v>282647.42</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="15">
         <v>61868</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="15">
         <v>36460.35</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="15">
         <v>3524460.35</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="15">
         <v>167467.85999999999</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="15">
         <v>172182.37</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="15">
         <v>36460.35</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="15">
         <v>350073.02</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="15">
         <v>9607.2900000000009</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="15">
         <v>34334.730000000003</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="20">
         <v>68669.460000000006</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="15">
         <v>1797.6</v>
       </c>
-      <c r="C20" s="23">
-        <v>0</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
         <v>3165847.58</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="15">
         <v>4741809.84</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="15">
         <v>3063163.24</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="15">
         <v>3862056.9899999998</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="15">
         <v>4660.54</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="15">
         <v>2782049.4200000004</v>
       </c>
-      <c r="J20" s="23">
-        <v>0</v>
-      </c>
-      <c r="K20" s="23">
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
-        <v>0</v>
-      </c>
-      <c r="M20" s="23">
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="15">
         <v>69008472.779999956</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="15">
         <v>60238383.350000024</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="15">
         <v>61817988.030000024</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="15">
         <v>81791739.530000016</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="15">
         <v>74069186.469999969</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="15">
         <v>99267487.5</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="15">
         <v>77246719.930000082</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="15">
         <v>70971851.689999983</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="15">
         <v>65890375.75</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="15">
         <v>61880078.789999999</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="15">
         <v>51662855.790000014</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <v>53249893.180000022</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="23">
-        <v>0</v>
-      </c>
-      <c r="C22" s="23">
-        <v>0</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23">
+      <c r="B22" s="15">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
         <v>33780.300000000003</v>
       </c>
-      <c r="H22" s="23">
-        <v>0</v>
-      </c>
-      <c r="I22" s="23">
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
         <v>727550</v>
       </c>
-      <c r="J22" s="23">
-        <v>0</v>
-      </c>
-      <c r="K22" s="23">
-        <v>0</v>
-      </c>
-      <c r="L22" s="23">
-        <v>0</v>
-      </c>
-      <c r="M22" s="23">
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="15">
         <v>13670.6</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="15">
         <v>9690</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="15">
         <v>14212</v>
       </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="23">
-        <v>0</v>
-      </c>
-      <c r="K23" s="23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="23">
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="15">
         <v>1603057.77</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="15">
         <v>2996432.92</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="15">
         <v>5583740.2000000002</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="15">
         <v>1164877.17</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="15">
         <v>4151314.12</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="15">
         <v>3434886.39</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="15">
         <v>1756550.87</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="15">
         <v>2152171.1</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="15">
         <v>1618359.24</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="15">
         <v>1780254.41</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="15">
         <v>811726.47</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="20">
         <v>1313472.03</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="23">
-        <v>0</v>
-      </c>
-      <c r="C25" s="23">
-        <v>0</v>
-      </c>
-      <c r="D25" s="23">
-        <v>0</v>
-      </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
+      <c r="B25" s="15">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
         <v>18835.87</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="15">
         <v>8464.8799999999992</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="15">
         <v>10408.630000000001</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="15">
         <v>16490.789999999997</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="15">
         <v>4043.7</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="15">
         <v>4026.27</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="20">
         <v>3966.61</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="15">
         <v>29796297.5</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="15">
         <v>8296839.4900000002</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="15">
         <v>23375315.280000001</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="15">
         <v>11105420.130000001</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="15">
         <v>8596344.3599999994</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="15">
         <v>8901505.9800000004</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="15">
         <v>7803128.4199999999</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="15">
         <v>813666.66999999993</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="15">
         <v>11766148.190000001</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="15">
         <v>4750895.17</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="15">
         <v>5100512.9000000004</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="20">
         <v>9302438.4699999988</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="15">
         <v>185423.23</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="15">
         <v>237635.46</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="15">
         <v>270464.68</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="15">
         <v>464385.31999999995</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="15">
         <v>119390.23999999999</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="15">
         <v>77574.559999999998</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="15">
         <v>8324.86</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="15">
         <v>50456.4</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="15">
         <v>105941.82</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="15">
         <v>268422.89999999997</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="15">
         <v>243299.31</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="20">
         <v>317157.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="15">
         <v>43174472.19000002</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="15">
         <v>29508895.739999983</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="15">
         <v>38577586.029999994</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="15">
         <v>38633348.20000004</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="15">
         <v>36444863.430000015</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="15">
         <v>25218922.759999983</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="15">
         <v>46382130.229999997</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="15">
         <v>43270393.260000035</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="15">
         <v>40554896.25999999</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="15">
         <v>39846850.160000026</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="15">
         <v>39358687.809999995</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="20">
         <v>37947115.849999934</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="15">
         <v>16100.76</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="15">
         <v>41698.32</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="15">
         <v>23953.03</v>
       </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
         <v>21289.17</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="15">
         <v>2815.29</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="15">
         <v>43581.1</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="15">
         <v>9833.84</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="15">
         <v>6720.08</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="15">
         <v>16066.949999999999</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="15">
         <v>33450.79</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="20">
         <v>15646.470000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="15">
         <v>38529049.689999983</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="15">
         <v>31063003.730000012</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="15">
         <v>28790437.260000017</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="15">
         <v>29151515.489999998</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="15">
         <v>28085074.23</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="15">
         <v>30519948.340000015</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="15">
         <v>49049829.740000002</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="15">
         <v>48961383.960000001</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="15">
         <v>59696273.409999952</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="15">
         <v>65612159.100000001</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="15">
         <v>73322626.179999918</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="20">
         <v>45872023.740000047</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="15">
         <v>8150715.4400000023</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="15">
         <v>10678756.190000003</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="15">
         <v>8471806.2499999963</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="15">
         <v>6228050.3100000042</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="15">
         <v>5564609.3400000017</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="15">
         <v>5874090.2099999981</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="15">
         <v>7179890.0900000017</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="15">
         <v>5371420.3899999997</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="15">
         <v>6146712.8500000034</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="15">
         <v>4226355.540000001</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="15">
         <v>2646468.59</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="20">
         <v>5145379.3899999987</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="23">
-        <v>0</v>
-      </c>
-      <c r="C32" s="23">
-        <v>0</v>
-      </c>
-      <c r="D32" s="23">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
         <v>2628.4399999999996</v>
       </c>
-      <c r="G32" s="23">
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
-        <v>0</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0</v>
-      </c>
-      <c r="K32" s="23">
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
         <v>1156.43</v>
       </c>
-      <c r="L32" s="23">
-        <v>0</v>
-      </c>
-      <c r="M32" s="23">
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="20">
         <v>2603.54</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="15">
         <v>114059273.11999999</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="15">
         <v>111962670.13999997</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="15">
         <v>156100429.47</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="15">
         <v>107385834.22999997</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="15">
         <v>128685550.82000001</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="15">
         <v>128174810.16000003</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="15">
         <v>132949384.34999996</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="15">
         <v>125401554.08999999</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="15">
         <v>97277366.799999997</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="15">
         <v>109155713.58999999</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="15">
         <v>115024191.40000002</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="20">
         <v>84218146.849999994</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="15">
         <v>1692295.43</v>
       </c>
-      <c r="C34" s="23">
-        <v>0</v>
-      </c>
-      <c r="D34" s="23">
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
         <v>1529516.82</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="15">
         <v>944010.2</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="15">
         <v>1118503.78</v>
       </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
         <v>1069829.1200000001</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="15">
         <v>1006325.57</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="15">
         <v>962312.93</v>
       </c>
-      <c r="K34" s="23">
-        <v>0</v>
-      </c>
-      <c r="L34" s="23">
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
         <v>939913.45</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="15">
         <v>35949.74</v>
       </c>
-      <c r="C35" s="23">
-        <v>0</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23">
+      <c r="C35" s="15">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
         <v>17941.62</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="15">
         <v>3797.28</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="15">
         <v>8705.0300000000007</v>
       </c>
-      <c r="H35" s="23">
-        <v>0</v>
-      </c>
-      <c r="I35" s="23">
-        <v>0</v>
-      </c>
-      <c r="J35" s="23">
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
         <v>8438.4</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="15">
         <v>35209.199999999997</v>
       </c>
-      <c r="L35" s="23">
-        <v>0</v>
-      </c>
-      <c r="M35" s="23">
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="20">
         <v>56717.64</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="15">
         <v>8801.68</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="15">
         <v>26243.53</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="15">
         <v>38114</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="15">
         <v>12426.24</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="15">
         <v>8677.7000000000007</v>
       </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
         <v>4214.88</v>
       </c>
-      <c r="I36" s="23">
-        <v>0</v>
-      </c>
-      <c r="J36" s="23">
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
         <v>21406.080000000002</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="15">
         <v>29547.82</v>
       </c>
-      <c r="L36" s="23">
-        <v>0</v>
-      </c>
-      <c r="M36" s="23">
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="15">
         <v>427663.9</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="15">
         <v>210085.23</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="15">
         <v>554600.04</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="15">
         <v>565311.53</v>
       </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
         <v>90.57</v>
       </c>
-      <c r="H37" s="23">
-        <v>0</v>
-      </c>
-      <c r="I37" s="23">
-        <v>0</v>
-      </c>
-      <c r="J37" s="23">
-        <v>0</v>
-      </c>
-      <c r="K37" s="23">
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
         <v>1881173.77</v>
       </c>
-      <c r="L37" s="23">
-        <v>0</v>
-      </c>
-      <c r="M37" s="23">
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="20">
         <v>225321.08</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="15">
         <v>2734241.3300000005</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="15">
         <v>3484758.0700000003</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="15">
         <v>5145956.66</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="15">
         <v>4928150.92</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="15">
         <v>4038172.8999999994</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="15">
         <v>2923153.4899999998</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="15">
         <v>4191297.5100000012</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="15">
         <v>2280968.0500000003</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="15">
         <v>5063968.96</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="15">
         <v>7885044.54</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="15">
         <v>3783690.6999999997</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="20">
         <v>4291144.96</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="23">
-        <v>0</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23">
-        <v>0</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0</v>
-      </c>
-      <c r="G39" s="23">
+      <c r="B39" s="15">
+        <v>0</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
         <v>3742309.33</v>
       </c>
-      <c r="H39" s="23">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23">
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
         <v>412010.31</v>
       </c>
-      <c r="J39" s="23">
-        <v>0</v>
-      </c>
-      <c r="K39" s="23">
-        <v>0</v>
-      </c>
-      <c r="L39" s="23">
-        <v>0</v>
-      </c>
-      <c r="M39" s="23">
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="15">
         <v>6742507.1600000001</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="15">
         <v>15479552.800000001</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="15">
         <v>8858403.6999999993</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="15">
         <v>8101262.8600000003</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="15">
         <v>19312976.93</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="15">
         <v>9098923.5199999996</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="15">
         <v>10283064.23</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="15">
         <v>19839438.68</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="15">
         <v>2276366.98</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="15">
         <v>10815246.789999999</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L40" s="15">
         <v>12891161.010000002</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="20">
         <v>13088039.91</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="15">
         <v>10990224.979999997</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="15">
         <v>10231064.17</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="15">
         <v>11505059.030000001</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="15">
         <v>11890318.640000002</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="15">
         <v>9237619</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="15">
         <v>10485685.129999997</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="15">
         <v>6220263.3000000007</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="15">
         <v>15273040.249999996</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="15">
         <v>8538787.7399999984</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="15">
         <v>10181701.319999998</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="15">
         <v>9910885.0299999993</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="20">
         <v>10153723.34</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="15">
         <v>210489198.24999991</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="15">
         <v>216943077.89999983</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="15">
         <v>252973030.92000014</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="15">
         <v>280109512.20000029</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="15">
         <v>248706247.92000014</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="15">
         <v>257946454.75999984</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="15">
         <v>235528184.68999988</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="15">
         <v>182037922.04000008</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="15">
         <v>287118055.5999999</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="15">
         <v>207639792.02999991</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="15">
         <v>165060876.88000023</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="20">
         <v>183075811.76000008</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="15">
         <v>10723456.310000001</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="15">
         <v>28519378.149999999</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="15">
         <v>21404837.470000003</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="15">
         <v>7418171.629999999</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="15">
         <v>12228711.32</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="15">
         <v>11471244.729999999</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="15">
         <v>20216723.330000006</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="15">
         <v>38878818.820000008</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="15">
         <v>29451121.050000001</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="15">
         <v>24968673.239999998</v>
       </c>
-      <c r="L43" s="23">
+      <c r="L43" s="15">
         <v>7122149.6499999976</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="20">
         <v>9875408.7599999998</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="15">
         <v>18259.55</v>
       </c>
-      <c r="C44" s="23">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23">
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
-        <v>0</v>
-      </c>
-      <c r="I44" s="23">
-        <v>0</v>
-      </c>
-      <c r="J44" s="23">
-        <v>0</v>
-      </c>
-      <c r="K44" s="23">
-        <v>0</v>
-      </c>
-      <c r="L44" s="23">
-        <v>0</v>
-      </c>
-      <c r="M44" s="23">
+      <c r="C44" s="15">
+        <v>0</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>0</v>
+      </c>
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="15">
         <v>2842359.7399999993</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="15">
         <v>2022487.3800000001</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="15">
         <v>2914709.9699999997</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="15">
         <v>9188055.1199999992</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="15">
         <v>1754681.5199999998</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="15">
         <v>4203209.7700000005</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="15">
         <v>3009398.8899999997</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="15">
         <v>16445282.27</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="15">
         <v>7223289.5999999987</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="15">
         <v>2094617.88</v>
       </c>
-      <c r="L45" s="23">
+      <c r="L45" s="15">
         <v>2800139.4899999993</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="20">
         <v>3276284.8600000003</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="15">
         <v>341504330.11000007</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="15">
         <v>320915412.30000001</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="15">
         <v>442858730.13000011</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="15">
         <v>387525058.54000002</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="15">
         <v>367588358.01999998</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="15">
         <v>373344126.24000001</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="15">
         <v>347348400.24999994</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="15">
         <v>263156562.06999999</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="15">
         <v>228236564.67000002</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="15">
         <v>328699592.11000001</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L46" s="15">
         <v>257445725.87</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="20">
         <v>276256104.24000001</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="15">
         <v>1385760575.070004</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="15">
         <v>1194399331.8999987</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="15">
         <v>1374157950.3499961</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="15">
         <v>1286807577.0500002</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="15">
         <v>1178470515.3099926</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="15">
         <v>1324475413.6000021</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="15">
         <v>1593466287.4600041</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="15">
         <v>1542866631.9399967</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="15">
         <v>1434231156.8800094</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="15">
         <v>1554558330.3399992</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="15">
         <v>1417034822.4399948</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="20">
         <v>1516046700.46999</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="23">
-        <v>0</v>
-      </c>
-      <c r="C48" s="23">
-        <v>0</v>
-      </c>
-      <c r="D48" s="23">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
-        <v>0</v>
-      </c>
-      <c r="I48" s="23">
-        <v>0</v>
-      </c>
-      <c r="J48" s="23">
-        <v>0</v>
-      </c>
-      <c r="K48" s="23">
-        <v>0</v>
-      </c>
-      <c r="L48" s="23">
+      <c r="B48" s="15">
+        <v>0</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <v>0</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15">
+        <v>0</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0</v>
+      </c>
+      <c r="L48" s="15">
         <v>14209.3</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="15">
         <v>22029.21</v>
       </c>
-      <c r="C49" s="23">
-        <v>0</v>
-      </c>
-      <c r="D49" s="23">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" s="23">
+      <c r="C49" s="15">
+        <v>0</v>
+      </c>
+      <c r="D49" s="15">
+        <v>0</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
         <v>39293.1</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="15">
         <v>186406.83</v>
       </c>
-      <c r="I49" s="23">
-        <v>0</v>
-      </c>
-      <c r="J49" s="23">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
         <v>68159.05</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="15">
         <v>75413.58</v>
       </c>
-      <c r="L49" s="23">
+      <c r="L49" s="15">
         <v>87080.55</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="20">
         <v>773125.54</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="15">
         <v>256701111.33000001</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="15">
         <v>254325962.25000003</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="15">
         <v>332503303.18000001</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="15">
         <v>249052081.3400003</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="15">
         <v>145861989.59000015</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="15">
         <v>349849339.28000003</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="15">
         <v>275422125.28000003</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="15">
         <v>211061042.48999998</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="15">
         <v>242928946.90999991</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="15">
         <v>81812473.710000023</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="15">
         <v>195970338.70000002</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="20">
         <v>149261667.44999996</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="15">
         <v>7088607.9499999974</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="15">
         <v>292311.53000000003</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="15">
         <v>6257139.8899999997</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="15">
         <v>89221797.549999997</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="15">
         <v>106898396.08999999</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="15">
         <v>11278703.270000001</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="15">
         <v>1910485.4999999998</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="15">
         <v>9917952.9000000022</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="15">
         <v>170799.91999999998</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="15">
         <v>102374977.36</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="15">
         <v>52611687.420000002</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="20">
         <v>51592802.989999995</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="15">
         <v>5500160.2000000002</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="15">
         <v>7093257.4000000004</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="15">
         <v>6909091.29</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="15">
         <v>12086714.710000001</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="15">
         <v>8771686.5800000001</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="15">
         <v>17889495.349999998</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="15">
         <v>8479240.209999999</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="15">
         <v>10165949.24</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="15">
         <v>10125510.07</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="15">
         <v>9600641.75</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="15">
         <v>6100512.8500000006</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="20">
         <v>8702593.2800000012</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="23">
-        <v>0</v>
-      </c>
-      <c r="C53" s="23">
-        <v>0</v>
-      </c>
-      <c r="D53" s="23">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
-        <v>0</v>
-      </c>
-      <c r="H53" s="23">
-        <v>0</v>
-      </c>
-      <c r="I53" s="23">
-        <v>0</v>
-      </c>
-      <c r="J53" s="23">
-        <v>0</v>
-      </c>
-      <c r="K53" s="23">
+      <c r="B53" s="15">
+        <v>0</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
         <v>15929.64</v>
       </c>
-      <c r="L53" s="23">
-        <v>0</v>
-      </c>
-      <c r="M53" s="23">
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="15">
         <v>1122996211.8699999</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="15">
         <v>1006438929.5099988</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="15">
         <v>1086483976.1999984</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="15">
         <v>906270604.6900003</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="15">
         <v>949404363.93999803</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="15">
         <v>997127036.13999689</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="15">
         <v>1121233623.8500004</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="15">
         <v>1124745323.4299934</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="15">
         <v>1134914242.5100014</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="15">
         <v>1070045329.2599957</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="15">
         <v>895091349.25999904</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="20">
         <v>992428289.12999809</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="15">
         <v>29605728.759999998</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="15">
         <v>26049001.659999996</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="15">
         <v>37376797.690000005</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="15">
         <v>27315772.049999997</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="15">
         <v>13665805.07</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="15">
         <v>19065869.629999999</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="15">
         <v>20171008.490000002</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="15">
         <v>25622687.779999997</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="15">
         <v>19469348.579999994</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="15">
         <v>18223195.550000001</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="15">
         <v>24122147.950000003</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="20">
         <v>23276368.170000002</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="27">
         <v>302599721.30000001</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="27">
         <v>301992251.39999998</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="27">
         <v>391106420.60000002</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="27">
         <v>372407867.30000001</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="27">
         <v>304355251.60000002</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="27">
         <v>386256343.39999998</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="27">
         <v>355511472.5</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="27">
         <v>319613340.10000002</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="27">
         <v>388122129.19999999</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="27">
         <v>359831056</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="27">
         <v>359310825.60000002</v>
       </c>
-      <c r="M56" s="23"/>
+      <c r="M56" s="28"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
@@ -6229,5 +6751,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>